--- a/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_3_resultat_selles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5788F11-875E-4837-A22E-57CA62F88ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53331102-93F9-4743-BDDF-91488AFB2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -366,12 +366,6 @@
     <t>Nombre d'œufs Trichuris trichiura pour la lame B</t>
   </si>
   <si>
-    <t>bf_202311_sch_impact_assessment_3_resultat_selles</t>
-  </si>
-  <si>
-    <t>(BF - NOvembre 2023) impact schisto - 3. Formulaire Resultats Selles</t>
-  </si>
-  <si>
     <t>Centre-Est</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>Boussé</t>
   </si>
   <si>
-    <t>Ziniare</t>
-  </si>
-  <si>
     <t>Ziniaré</t>
   </si>
   <si>
@@ -562,13 +553,19 @@
   </si>
   <si>
     <t>Zoungou</t>
+  </si>
+  <si>
+    <t>(BF - NOvembre 2023) impact schisto - 3. Formulaire Resultats Selles V2</t>
+  </si>
+  <si>
+    <t>bf_202311_sch_impact_assessment_3_resultat_selles_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +648,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -711,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,9 +760,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1567,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD80"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1716,10 +1722,10 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1727,10 +1733,10 @@
         <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1740,18 +1746,18 @@
     <row r="15" spans="1:7" s="20" customFormat="1">
       <c r="A15" s="19"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1759,13 +1765,13 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1773,13 +1779,13 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1787,13 +1793,13 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1801,13 +1807,13 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1815,941 +1821,931 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="20" customFormat="1">
-      <c r="A23" s="19"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1">
+      <c r="A22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" t="s">
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" t="s">
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" t="s">
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" t="s">
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" t="s">
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" t="s">
         <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" t="s">
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" t="s">
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" t="s">
         <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" t="s">
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" t="s">
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" t="s">
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" t="s">
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" t="s">
         <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" t="s">
         <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" t="s">
         <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" t="s">
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" t="s">
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" t="s">
         <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" t="s">
         <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" t="s">
         <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" t="s">
         <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" t="s">
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" t="s">
         <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" t="s">
         <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" t="s">
         <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
       <c r="A52" t="s">
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7" ht="15.75">
       <c r="A53" t="s">
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" t="s">
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" t="s">
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
       <c r="A56" t="s">
         <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
       <c r="A57" t="s">
         <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" t="s">
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" ht="15.75">
       <c r="A59" t="s">
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" t="s">
         <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" t="s">
         <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
       <c r="A62" t="s">
         <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" ht="15.75">
       <c r="A63" t="s">
         <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
       <c r="A64" t="s">
         <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" t="s">
         <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" t="s">
         <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
       <c r="A67" t="s">
         <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" ht="15.75">
       <c r="A68" t="s">
         <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
       <c r="A69" t="s">
         <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:7" ht="15.75">
       <c r="A70" t="s">
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
       <c r="A71" t="s">
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
       <c r="A72" t="s">
         <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
       <c r="A73" t="s">
         <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
       <c r="A74" t="s">
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
       <c r="A75" t="s">
         <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
       <c r="A76" t="s">
         <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="A77" t="s">
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
-      </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
       <c r="A79" t="s">
         <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E79" t="s">
-        <v>124</v>
-      </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" ht="15.75">
-      <c r="A80" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" t="s">
-        <v>179</v>
-      </c>
-      <c r="E80" t="s">
-        <v>124</v>
-      </c>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
     </row>
@@ -2827,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2853,11 +2849,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>114</v>
+      <c r="A2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>105</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_3_resultat_selles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53331102-93F9-4743-BDDF-91488AFB2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46619F3D-6705-4137-9DE9-14A378C6027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -537,35 +537,44 @@
     <t>Urbain</t>
   </si>
   <si>
-    <t>Boudry</t>
-  </si>
-  <si>
     <t>Meguet</t>
   </si>
   <si>
     <t>Mogtedo</t>
   </si>
   <si>
-    <t>Salogo</t>
-  </si>
-  <si>
-    <t>Zam</t>
-  </si>
-  <si>
-    <t>Zoungou</t>
-  </si>
-  <si>
-    <t>(BF - NOvembre 2023) impact schisto - 3. Formulaire Resultats Selles V2</t>
-  </si>
-  <si>
-    <t>bf_202311_sch_impact_assessment_3_resultat_selles_v2</t>
+    <t>(BF - Novembre 2023) impact schisto - 3. Formulaire Resultats Selles V2.1</t>
+  </si>
+  <si>
+    <t>bf_202311_sch_impact_assessment_3_resultat_selles_v2_1</t>
+  </si>
+  <si>
+    <t>Bourma</t>
+  </si>
+  <si>
+    <t>Dawaka</t>
+  </si>
+  <si>
+    <t>Koumséogo</t>
+  </si>
+  <si>
+    <t>Rapadama Ud</t>
+  </si>
+  <si>
+    <t>Sankuissi</t>
+  </si>
+  <si>
+    <t>Talembika</t>
+  </si>
+  <si>
+    <t>Wada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,13 +657,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -715,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -760,7 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1573,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1846,8 +1847,8 @@
       <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" t="s">
@@ -1862,8 +1863,8 @@
       <c r="E24" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" t="s">
@@ -1878,8 +1879,8 @@
       <c r="E25" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" t="s">
@@ -1894,8 +1895,8 @@
       <c r="E26" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" t="s">
@@ -1910,8 +1911,8 @@
       <c r="E27" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" t="s">
@@ -1926,8 +1927,8 @@
       <c r="E28" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
@@ -1942,8 +1943,8 @@
       <c r="E29" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" t="s">
@@ -1958,8 +1959,8 @@
       <c r="E30" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" t="s">
@@ -1974,8 +1975,8 @@
       <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" t="s">
@@ -1990,8 +1991,8 @@
       <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" t="s">
@@ -2006,8 +2007,8 @@
       <c r="E33" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" t="s">
@@ -2022,8 +2023,8 @@
       <c r="E34" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" t="s">
@@ -2038,8 +2039,8 @@
       <c r="E35" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" t="s">
@@ -2054,8 +2055,8 @@
       <c r="E36" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" t="s">
@@ -2070,8 +2071,8 @@
       <c r="E37" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" t="s">
@@ -2086,8 +2087,8 @@
       <c r="E38" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" t="s">
@@ -2102,8 +2103,8 @@
       <c r="E39" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" t="s">
@@ -2118,8 +2119,8 @@
       <c r="E40" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" t="s">
@@ -2134,8 +2135,8 @@
       <c r="E41" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" t="s">
@@ -2150,8 +2151,8 @@
       <c r="E42" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" t="s">
@@ -2166,8 +2167,8 @@
       <c r="E43" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" t="s">
@@ -2182,8 +2183,8 @@
       <c r="E44" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" t="s">
@@ -2198,8 +2199,8 @@
       <c r="E45" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" t="s">
@@ -2214,8 +2215,8 @@
       <c r="E46" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" t="s">
@@ -2230,8 +2231,8 @@
       <c r="E47" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" t="s">
@@ -2246,8 +2247,8 @@
       <c r="E48" t="s">
         <v>117</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" t="s">
@@ -2262,8 +2263,8 @@
       <c r="E49" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" t="s">
@@ -2278,8 +2279,8 @@
       <c r="E50" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
       <c r="A51" t="s">
@@ -2294,8 +2295,8 @@
       <c r="E51" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
       <c r="A52" t="s">
@@ -2310,8 +2311,8 @@
       <c r="E52" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="15.75">
       <c r="A53" t="s">
@@ -2326,8 +2327,8 @@
       <c r="E53" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" t="s">
@@ -2342,8 +2343,8 @@
       <c r="E54" t="s">
         <v>118</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" t="s">
@@ -2358,8 +2359,8 @@
       <c r="E55" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
       <c r="A56" t="s">
@@ -2374,8 +2375,8 @@
       <c r="E56" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
       <c r="A57" t="s">
@@ -2390,8 +2391,8 @@
       <c r="E57" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" t="s">
@@ -2406,8 +2407,8 @@
       <c r="E58" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7" ht="15.75">
       <c r="A59" t="s">
@@ -2422,8 +2423,8 @@
       <c r="E59" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" t="s">
@@ -2438,8 +2439,8 @@
       <c r="E60" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" t="s">
@@ -2454,8 +2455,8 @@
       <c r="E61" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
       <c r="A62" t="s">
@@ -2470,8 +2471,8 @@
       <c r="E62" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7" ht="15.75">
       <c r="A63" t="s">
@@ -2486,8 +2487,8 @@
       <c r="E63" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
       <c r="A64" t="s">
@@ -2502,8 +2503,8 @@
       <c r="E64" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" t="s">
@@ -2518,8 +2519,8 @@
       <c r="E65" t="s">
         <v>120</v>
       </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" t="s">
@@ -2534,8 +2535,8 @@
       <c r="E66" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
       <c r="A67" t="s">
@@ -2550,8 +2551,8 @@
       <c r="E67" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="1:7" ht="15.75">
       <c r="A68" t="s">
@@ -2566,8 +2567,8 @@
       <c r="E68" t="s">
         <v>120</v>
       </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
       <c r="A69" t="s">
@@ -2582,8 +2583,8 @@
       <c r="E69" t="s">
         <v>120</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7" ht="15.75">
       <c r="A70" t="s">
@@ -2598,8 +2599,8 @@
       <c r="E70" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
       <c r="A71" t="s">
@@ -2614,8 +2615,8 @@
       <c r="E71" t="s">
         <v>120</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
       <c r="A72" t="s">
@@ -2630,186 +2631,216 @@
       <c r="E72" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
       <c r="A73" t="s">
         <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E73" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
       <c r="A74" t="s">
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
       <c r="A75" t="s">
         <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
         <v>121</v>
       </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
       <c r="A76" t="s">
         <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E76" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="A77" t="s">
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E77" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
       <c r="A78" t="s">
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
       <c r="A79" t="s">
         <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E79" t="s">
         <v>121</v>
       </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75">
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="6:7" ht="15.75">
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="6:7" ht="15.75">
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" spans="6:7" ht="15.75">
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75">
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="6:7" ht="15.75">
+    <row r="84" spans="1:7" ht="15.75">
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="6:7" ht="15.75">
+    <row r="85" spans="1:7" ht="15.75">
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="6:7" ht="15.75">
+    <row r="86" spans="1:7" ht="15.75">
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="6:7" ht="15.75">
+    <row r="87" spans="1:7" ht="15.75">
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="6:7" ht="15.75">
+    <row r="88" spans="1:7" ht="15.75">
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="6:7" ht="15.75">
+    <row r="89" spans="1:7" ht="15.75">
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="6:7" ht="15.75">
+    <row r="90" spans="1:7" ht="15.75">
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="6:7" ht="15.75">
+    <row r="91" spans="1:7" ht="15.75">
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="6:7" ht="15.75">
+    <row r="92" spans="1:7" ht="15.75">
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="6:7" ht="15.75">
+    <row r="93" spans="1:7" ht="15.75">
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="6:7" ht="15.75">
+    <row r="94" spans="1:7" ht="15.75">
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="6:7" ht="15.75">
+    <row r="95" spans="1:7" ht="15.75">
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="6:7" ht="15.75">
+    <row r="96" spans="1:7" ht="15.75">
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
     </row>
@@ -2823,14 +2854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
@@ -2849,11 +2880,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>178</v>
+      <c r="A2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>105</v>
